--- a/resources/pdfs/Finished/Table 3/2004_tb3.xlsx
+++ b/resources/pdfs/Finished/Table 3/2004_tb3.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\expenditure-reports-project\resources\pdfs\Finished\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\expenditure-reports-project\resources\pdfs\Finished\Table 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FCAC631-B6D5-4105-B91C-82BABA29AD3F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22365C5D-7FA3-4CEB-A5F8-4A3C799E9C1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2004_tb3.pdf" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -553,7 +561,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
@@ -1394,70 +1402,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I167"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B167" sqref="B167"/>
+      <pane ySplit="3" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J123" sqref="J123:J155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="86.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>4</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1466,56 +1472,56 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>14000</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1">
+        <v>14000</v>
+      </c>
+      <c r="J4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>500000</v>
       </c>
       <c r="G5" s="1">
+        <v>500000</v>
+      </c>
+      <c r="H5" s="1">
         <v>14000</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>514000</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
+      <c r="D6" t="s">
+        <v>4</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1524,347 +1530,347 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>485600</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>485600</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1">
+        <v>485600</v>
+      </c>
+      <c r="J6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>1685000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>9849912</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>11534912</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
       <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>11534912</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
         <v>99167</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
       <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <v>99167</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
       <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
         <v>99167</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
         <v>545785</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>352000</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>897785</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
       <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
         <v>897785</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
+      <c r="D10" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>200000</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
         <v>200000</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
+      <c r="D11" t="s">
+        <v>4</v>
       </c>
       <c r="E11" s="1">
-        <v>152000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>152000</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>152000</v>
       </c>
       <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
         <v>152000</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
         <v>123600</v>
       </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
       <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
         <v>123600</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
       <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
         <v>123600</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>104</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
       <c r="E13" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>1000</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
         <v>1000</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>76</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
         <v>46667</v>
       </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
       <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
         <v>46667</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
       <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
         <v>46667</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>67</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
         <v>99167</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
       <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
         <v>99167</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
       <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
         <v>99167</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>45</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
         <v>225000</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>12200</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>237200</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
       <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
         <v>237200</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>102</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
+      <c r="D17" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="1">
-        <v>1072</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>1072</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>1072</v>
       </c>
       <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
         <v>1072</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>70</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
@@ -1872,304 +1878,304 @@
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>61400</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
         <v>61400</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1">
+        <v>61400</v>
+      </c>
+      <c r="J18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>2824386</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>11068184</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>13892570</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>575000</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>14467570</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="4">
-        <f>SUM(D4:D18)</f>
+      <c r="E20" s="4">
+        <f>SUM(E4:E18)</f>
         <v>2824386</v>
       </c>
-      <c r="E20" s="4">
-        <f t="shared" ref="E20:H20" si="0">SUM(E4:E18)</f>
+      <c r="F20" s="4">
+        <f t="shared" ref="F20:I20" si="0">SUM(F4:F18)</f>
         <v>11068184</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <f t="shared" si="0"/>
         <v>13892570</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <f t="shared" si="0"/>
         <v>575000</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <f t="shared" si="0"/>
         <v>14467570</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>106</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
+      <c r="D22" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>550</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
         <v>550</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>1679451</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>6083800</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>7763251</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>44300</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>7807551</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
         <v>517250</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>303400</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>820650</v>
       </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
       <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
         <v>820650</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>3673250</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>80000</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>3753250</v>
       </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
       <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
         <v>3753250</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>115</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>42</v>
       </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
       <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
         <v>42</v>
       </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
       <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
         <v>42</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>354720</v>
       </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
       <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
         <v>354720</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>5500</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>360220</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>56</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>129720</v>
       </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
       <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
         <v>129720</v>
       </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
       <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
         <v>129720</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>160</v>
       </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
         <v>536720</v>
       </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
       <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
         <v>536720</v>
       </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
       <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
         <v>536720</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>104</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
+      <c r="D30" t="s">
+        <v>4</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -2178,1599 +2184,1599 @@
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
         <v>1000</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>96</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>10500</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>2500</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>13000</v>
       </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
       <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
         <v>13000</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>42</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>129720</v>
       </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
       <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
         <v>129720</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>150000</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>279720</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
+      <c r="D33" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="1">
-        <v>115000</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1">
         <v>115000</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>115000</v>
       </c>
       <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
         <v>115000</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>52</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1">
         <v>175517</v>
       </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
       <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
         <v>175517</v>
       </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
       <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
         <v>175517</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>11</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1">
         <v>982200</v>
       </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
       <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
         <v>982200</v>
       </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
       <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
         <v>982200</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>19</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1">
         <v>517250</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>52100</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>569350</v>
       </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
       <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
         <v>569350</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="1">
         <v>982200</v>
       </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
       <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
         <v>982200</v>
       </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
       <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
         <v>982200</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1">
         <v>1901000</v>
       </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
       <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
         <v>1901000</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>31500</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <v>1932500</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>11589540</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>6637350</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <v>18226890</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>232300</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>18459190</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D40" s="4">
-        <f>SUM(D22:D38)</f>
+      <c r="E40" s="4">
+        <f>SUM(E22:E38)</f>
         <v>11589540</v>
       </c>
-      <c r="E40" s="4">
-        <f t="shared" ref="E40:H40" si="1">SUM(E22:E38)</f>
+      <c r="F40" s="4">
+        <f t="shared" ref="F40:I40" si="1">SUM(F22:F38)</f>
         <v>6637350</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <f t="shared" si="1"/>
         <v>18226890</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <f t="shared" si="1"/>
         <v>232300</v>
       </c>
-      <c r="H40" s="4">
+      <c r="I40" s="4">
         <f t="shared" si="1"/>
         <v>18459190</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
       </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
+      <c r="D42" t="s">
+        <v>4</v>
       </c>
       <c r="E42" s="1">
-        <v>352000</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
         <v>352000</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>352000</v>
       </c>
       <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
         <v>352000</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>57</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1">
         <v>123600</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>264</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>123864</v>
       </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
       <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
         <v>123864</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>59</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
       </c>
-      <c r="C44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1">
         <v>123600</v>
       </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
       <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
         <v>123600</v>
       </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
       <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
         <v>123600</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>59</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
-      <c r="C45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1">
         <v>123600</v>
       </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
       <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
         <v>123600</v>
       </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
       <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
         <v>123600</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>114</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
       </c>
-      <c r="C46" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
+      <c r="D46" t="s">
+        <v>4</v>
       </c>
       <c r="E46" s="1">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
         <v>264</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
         <v>264</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>57</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="1">
         <v>123600</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>264</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <v>123864</v>
       </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
       <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
         <v>123864</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>123</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="1">
+      <c r="E48" s="1">
         <v>41</v>
       </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
       <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
         <v>41</v>
       </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
       <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
         <v>41</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>59</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="1">
+      <c r="E49" s="1">
         <v>123600</v>
       </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
       <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
         <v>123600</v>
       </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
       <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
         <v>123600</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>75</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="1">
+      <c r="E50" s="1">
         <v>46707</v>
       </c>
-      <c r="E50" s="1">
-        <v>0</v>
-      </c>
       <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
         <v>46707</v>
       </c>
-      <c r="G50" s="1">
-        <v>0</v>
-      </c>
       <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
         <v>46707</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>100</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
       <c r="E51" s="1">
-        <v>4170</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1">
         <v>4170</v>
       </c>
       <c r="G51" s="1">
-        <v>0</v>
+        <v>4170</v>
       </c>
       <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
         <v>4170</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>99</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
       <c r="E52" s="1">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="F52" s="1">
         <v>7000</v>
       </c>
       <c r="G52" s="1">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
         <v>7000</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="1">
+      <c r="E53" s="1">
         <v>664748</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>363962</v>
       </c>
-      <c r="F53" s="1">
+      <c r="G53" s="1">
         <v>1028710</v>
       </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
       <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
         <v>1028710</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D54" s="4">
-        <f>SUM(D42:D52)</f>
+      <c r="E54" s="4">
+        <f>SUM(E42:E52)</f>
         <v>664748</v>
       </c>
-      <c r="E54" s="4">
-        <f t="shared" ref="E54:H54" si="2">SUM(E42:E52)</f>
+      <c r="F54" s="4">
+        <f t="shared" ref="F54:I54" si="2">SUM(F42:F52)</f>
         <v>363962</v>
       </c>
-      <c r="F54" s="4">
+      <c r="G54" s="4">
         <f t="shared" si="2"/>
         <v>1028710</v>
       </c>
-      <c r="G54" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="H54" s="4">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <f t="shared" si="2"/>
         <v>1028710</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>25</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="1">
+      <c r="E56" s="1">
         <v>517250</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
         <v>1040</v>
       </c>
-      <c r="F56" s="1">
+      <c r="G56" s="1">
         <v>518290</v>
       </c>
-      <c r="G56" s="1">
-        <v>0</v>
-      </c>
       <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
         <v>518290</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>103</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
       </c>
-      <c r="C57" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0</v>
+      <c r="D57" t="s">
+        <v>4</v>
       </c>
       <c r="E57" s="1">
-        <v>1040</v>
+        <v>0</v>
       </c>
       <c r="F57" s="1">
         <v>1040</v>
       </c>
       <c r="G57" s="1">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
         <v>1040</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>17</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="1">
+      <c r="E58" s="1">
         <v>545785</v>
       </c>
-      <c r="E58" s="1">
+      <c r="F58" s="1">
         <v>117000</v>
       </c>
-      <c r="F58" s="1">
+      <c r="G58" s="1">
         <v>662785</v>
       </c>
-      <c r="G58" s="1">
-        <v>0</v>
-      </c>
       <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
         <v>662785</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>81</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
       </c>
-      <c r="C59" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0</v>
+      <c r="D59" t="s">
+        <v>4</v>
       </c>
       <c r="E59" s="1">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="F59" s="1">
         <v>42000</v>
       </c>
       <c r="G59" s="1">
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
         <v>42000</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>25</v>
       </c>
       <c r="B60" t="s">
         <v>58</v>
       </c>
-      <c r="C60" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="1">
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1">
         <v>517250</v>
       </c>
-      <c r="E60" s="1">
+      <c r="F60" s="1">
         <v>1040</v>
       </c>
-      <c r="F60" s="1">
+      <c r="G60" s="1">
         <v>518290</v>
       </c>
-      <c r="G60" s="1">
-        <v>0</v>
-      </c>
       <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
         <v>518290</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="1">
+      <c r="E61" s="1">
         <v>1580285</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
         <v>162120</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <v>1742405</v>
       </c>
-      <c r="G61" s="1">
-        <v>0</v>
-      </c>
       <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
         <v>1742405</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D62" s="4">
-        <f>SUM(D56:D60)</f>
+      <c r="E62" s="4">
+        <f>SUM(E56:E60)</f>
         <v>1580285</v>
       </c>
-      <c r="E62" s="4">
-        <f t="shared" ref="E62:H62" si="3">SUM(E56:E60)</f>
+      <c r="F62" s="4">
+        <f t="shared" ref="F62:I62" si="3">SUM(F56:F60)</f>
         <v>162120</v>
       </c>
-      <c r="F62" s="4">
+      <c r="G62" s="4">
         <f t="shared" si="3"/>
         <v>1742405</v>
       </c>
-      <c r="G62" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="H62" s="4">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="4">
+        <f t="shared" si="3"/>
         <v>1742405</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>66</v>
       </c>
       <c r="B64" t="s">
         <v>61</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="1">
-        <v>0</v>
-      </c>
       <c r="E64" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="F64" s="1">
         <v>100000</v>
       </c>
       <c r="G64" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
         <v>100000</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>88</v>
       </c>
       <c r="B65" t="s">
         <v>62</v>
       </c>
-      <c r="C65" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1">
         <v>25000</v>
       </c>
-      <c r="E65" s="1">
+      <c r="F65" s="1">
         <v>1000</v>
       </c>
-      <c r="F65" s="1">
+      <c r="G65" s="1">
         <v>26000</v>
       </c>
-      <c r="G65" s="1">
-        <v>0</v>
-      </c>
       <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
         <v>26000</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>83</v>
       </c>
       <c r="B66" t="s">
         <v>63</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="1">
-        <v>0</v>
-      </c>
       <c r="E66" s="1">
-        <v>35200</v>
+        <v>0</v>
       </c>
       <c r="F66" s="1">
         <v>35200</v>
       </c>
       <c r="G66" s="1">
-        <v>0</v>
+        <v>35200</v>
       </c>
       <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
         <v>35200</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>39</v>
       </c>
       <c r="B67" t="s">
         <v>64</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="1">
+      <c r="E67" s="1">
         <v>176000</v>
       </c>
-      <c r="E67" s="1">
+      <c r="F67" s="1">
         <v>153267</v>
       </c>
-      <c r="F67" s="1">
+      <c r="G67" s="1">
         <v>329267</v>
       </c>
-      <c r="G67" s="1">
-        <v>0</v>
-      </c>
       <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
         <v>329267</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>47</v>
       </c>
       <c r="B68" t="s">
         <v>65</v>
       </c>
-      <c r="C68" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="1">
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="1">
         <v>219762</v>
       </c>
-      <c r="E68" s="1">
-        <v>0</v>
-      </c>
       <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
         <v>219762</v>
       </c>
-      <c r="G68" s="1">
-        <v>0</v>
-      </c>
       <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
         <v>219762</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8</v>
       </c>
       <c r="B69" t="s">
         <v>66</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="1">
+      <c r="E69" s="1">
         <v>225000</v>
       </c>
-      <c r="E69" s="1">
+      <c r="F69" s="1">
         <v>281600</v>
       </c>
-      <c r="F69" s="1">
+      <c r="G69" s="1">
         <v>506600</v>
       </c>
-      <c r="G69" s="1">
+      <c r="H69" s="1">
         <v>587500</v>
       </c>
-      <c r="H69" s="1">
+      <c r="I69" s="1">
         <v>1094100</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>54</v>
       </c>
       <c r="B70" t="s">
         <v>67</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="1">
-        <v>0</v>
-      </c>
       <c r="E70" s="1">
-        <v>140800</v>
+        <v>0</v>
       </c>
       <c r="F70" s="1">
         <v>140800</v>
       </c>
       <c r="G70" s="1">
-        <v>0</v>
+        <v>140800</v>
       </c>
       <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
         <v>140800</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>54</v>
       </c>
       <c r="B71" t="s">
         <v>68</v>
       </c>
-      <c r="C71" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" s="1">
-        <v>0</v>
+      <c r="D71" t="s">
+        <v>4</v>
       </c>
       <c r="E71" s="1">
-        <v>140800</v>
+        <v>0</v>
       </c>
       <c r="F71" s="1">
         <v>140800</v>
       </c>
       <c r="G71" s="1">
-        <v>0</v>
+        <v>140800</v>
       </c>
       <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
         <v>140800</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>47</v>
       </c>
       <c r="B72" t="s">
         <v>69</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="1">
+      <c r="E72" s="1">
         <v>219762</v>
       </c>
-      <c r="E72" s="1">
-        <v>0</v>
-      </c>
       <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
         <v>219762</v>
       </c>
-      <c r="G72" s="1">
-        <v>0</v>
-      </c>
       <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
         <v>219762</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>89</v>
       </c>
       <c r="B73" t="s">
         <v>70</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="1">
+      <c r="E73" s="1">
         <v>25000</v>
       </c>
-      <c r="E73" s="1">
-        <v>0</v>
-      </c>
       <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
         <v>25000</v>
       </c>
-      <c r="G73" s="1">
-        <v>0</v>
-      </c>
       <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
         <v>25000</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>86</v>
       </c>
       <c r="B74" t="s">
         <v>71</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="1">
-        <v>0</v>
-      </c>
       <c r="E74" s="1">
-        <v>28160</v>
+        <v>0</v>
       </c>
       <c r="F74" s="1">
         <v>28160</v>
       </c>
       <c r="G74" s="1">
-        <v>0</v>
+        <v>28160</v>
       </c>
       <c r="H74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
         <v>28160</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>80</v>
       </c>
       <c r="B75" t="s">
         <v>72</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="1">
-        <v>0</v>
-      </c>
       <c r="E75" s="1">
-        <v>42240</v>
+        <v>0</v>
       </c>
       <c r="F75" s="1">
         <v>42240</v>
       </c>
       <c r="G75" s="1">
-        <v>0</v>
+        <v>42240</v>
       </c>
       <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
         <v>42240</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>73</v>
       </c>
       <c r="B76" t="s">
         <v>73</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="1">
-        <v>0</v>
-      </c>
       <c r="E76" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="F76" s="1">
         <v>50000</v>
       </c>
       <c r="G76" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
         <v>50000</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>43</v>
       </c>
       <c r="B77" t="s">
         <v>161</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="1">
+      <c r="E77" s="1">
         <v>25000</v>
       </c>
-      <c r="E77" s="1">
+      <c r="F77" s="1">
         <v>250000</v>
       </c>
-      <c r="F77" s="1">
+      <c r="G77" s="1">
         <v>275000</v>
       </c>
-      <c r="G77" s="1">
-        <v>0</v>
-      </c>
       <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
         <v>275000</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>44</v>
       </c>
       <c r="B78" t="s">
         <v>74</v>
       </c>
-      <c r="C78" t="s">
-        <v>4</v>
-      </c>
-      <c r="D78" s="1">
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="1">
         <v>176000</v>
       </c>
-      <c r="E78" s="1">
+      <c r="F78" s="1">
         <v>70400</v>
       </c>
-      <c r="F78" s="1">
+      <c r="G78" s="1">
         <v>246400</v>
       </c>
-      <c r="G78" s="1">
-        <v>0</v>
-      </c>
       <c r="H78" s="1">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
         <v>246400</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>41</v>
       </c>
       <c r="B79" t="s">
         <v>75</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="1">
+      <c r="E79" s="1">
         <v>219762</v>
       </c>
-      <c r="E79" s="1">
+      <c r="F79" s="1">
         <v>75000</v>
       </c>
-      <c r="F79" s="1">
+      <c r="G79" s="1">
         <v>294762</v>
       </c>
-      <c r="G79" s="1">
-        <v>0</v>
-      </c>
       <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
         <v>294762</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>69</v>
       </c>
       <c r="B80" t="s">
         <v>76</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="1">
-        <v>0</v>
-      </c>
       <c r="E80" s="1">
-        <v>95404</v>
+        <v>0</v>
       </c>
       <c r="F80" s="1">
         <v>95404</v>
       </c>
       <c r="G80" s="1">
-        <v>0</v>
+        <v>95404</v>
       </c>
       <c r="H80" s="1">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
         <v>95404</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>51</v>
       </c>
       <c r="B81" t="s">
         <v>77</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="1">
-        <v>0</v>
-      </c>
       <c r="E81" s="1">
-        <v>195000</v>
+        <v>0</v>
       </c>
       <c r="F81" s="1">
         <v>195000</v>
       </c>
       <c r="G81" s="1">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="H81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
         <v>195000</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>83</v>
       </c>
       <c r="B82" t="s">
         <v>78</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="1">
-        <v>0</v>
-      </c>
       <c r="E82" s="1">
-        <v>35200</v>
+        <v>0</v>
       </c>
       <c r="F82" s="1">
         <v>35200</v>
       </c>
       <c r="G82" s="1">
-        <v>0</v>
+        <v>35200</v>
       </c>
       <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
         <v>35200</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>40</v>
       </c>
       <c r="B83" t="s">
         <v>79</v>
       </c>
-      <c r="C83" t="s">
-        <v>4</v>
-      </c>
-      <c r="D83" s="1">
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="1">
         <v>176000</v>
       </c>
-      <c r="E83" s="1">
+      <c r="F83" s="1">
         <v>140800</v>
       </c>
-      <c r="F83" s="1">
+      <c r="G83" s="1">
         <v>316800</v>
       </c>
-      <c r="G83" s="1">
-        <v>0</v>
-      </c>
       <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
         <v>316800</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>35</v>
       </c>
       <c r="B84" t="s">
         <v>80</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="1">
+      <c r="E84" s="1">
         <v>176000</v>
       </c>
-      <c r="E84" s="1">
+      <c r="F84" s="1">
         <v>279700</v>
       </c>
-      <c r="F84" s="1">
+      <c r="G84" s="1">
         <v>455700</v>
       </c>
-      <c r="G84" s="1">
-        <v>0</v>
-      </c>
       <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
         <v>455700</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>46</v>
       </c>
       <c r="B85" t="s">
         <v>81</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="1">
+      <c r="E85" s="1">
         <v>25000</v>
       </c>
-      <c r="E85" s="1">
+      <c r="F85" s="1">
         <v>200000</v>
       </c>
-      <c r="F85" s="1">
+      <c r="G85" s="1">
         <v>225000</v>
       </c>
-      <c r="G85" s="1">
-        <v>0</v>
-      </c>
       <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
         <v>225000</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>82</v>
       </c>
-      <c r="C86" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86" s="1">
-        <v>0</v>
+      <c r="D86" t="s">
+        <v>4</v>
       </c>
       <c r="E86" s="1">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="F86" s="1">
         <v>35000</v>
       </c>
       <c r="G86" s="1">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
         <v>35000</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>23</v>
       </c>
       <c r="B87" t="s">
         <v>83</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="1">
+      <c r="E87" s="1">
         <v>225000</v>
       </c>
-      <c r="E87" s="1">
+      <c r="F87" s="1">
         <v>317300</v>
       </c>
-      <c r="F87" s="1">
+      <c r="G87" s="1">
         <v>542300</v>
       </c>
-      <c r="G87" s="1">
-        <v>0</v>
-      </c>
       <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
         <v>542300</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>84</v>
       </c>
-      <c r="D88" s="1">
+      <c r="E88" s="1">
         <v>1913286</v>
       </c>
-      <c r="E88" s="1">
+      <c r="F88" s="1">
         <v>2666871</v>
       </c>
-      <c r="F88" s="1">
+      <c r="G88" s="1">
         <v>4580157</v>
       </c>
-      <c r="G88" s="1">
+      <c r="H88" s="1">
         <v>587500</v>
       </c>
-      <c r="H88" s="1">
+      <c r="I88" s="1">
         <v>5167657</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D89" s="4">
-        <f>SUM(D64:D87)</f>
+      <c r="E89" s="4">
+        <f>SUM(E64:E87)</f>
         <v>1913286</v>
       </c>
-      <c r="E89" s="4">
-        <f t="shared" ref="E89:H89" si="4">SUM(E64:E87)</f>
+      <c r="F89" s="4">
+        <f t="shared" ref="F89:I89" si="4">SUM(F64:F87)</f>
         <v>2666871</v>
       </c>
-      <c r="F89" s="4">
+      <c r="G89" s="4">
         <f t="shared" si="4"/>
         <v>4580157</v>
       </c>
-      <c r="G89" s="4">
+      <c r="H89" s="4">
         <f t="shared" si="4"/>
         <v>587500</v>
       </c>
-      <c r="H89" s="4">
+      <c r="I89" s="4">
         <f t="shared" si="4"/>
         <v>5167657</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>33</v>
       </c>
       <c r="B91" t="s">
         <v>86</v>
       </c>
-      <c r="C91" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" s="1">
-        <v>0</v>
+      <c r="D91" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -3779,378 +3785,378 @@
         <v>0</v>
       </c>
       <c r="G91" s="1">
-        <v>490000</v>
+        <v>0</v>
       </c>
       <c r="H91" s="1">
         <v>490000</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="1">
+        <v>490000</v>
+      </c>
+      <c r="J91" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>87</v>
       </c>
-      <c r="C92" t="s">
-        <v>4</v>
-      </c>
-      <c r="D92" s="1">
+      <c r="D92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="1">
         <v>24000</v>
       </c>
-      <c r="E92" s="1">
-        <v>0</v>
-      </c>
       <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
         <v>24000</v>
       </c>
-      <c r="G92" s="1">
-        <v>0</v>
-      </c>
       <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
         <v>24000</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>90</v>
       </c>
       <c r="B93" t="s">
         <v>88</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="1">
+      <c r="E93" s="1">
         <v>24000</v>
       </c>
-      <c r="E93" s="1">
-        <v>0</v>
-      </c>
       <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
         <v>24000</v>
       </c>
-      <c r="G93" s="1">
-        <v>0</v>
-      </c>
       <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
         <v>24000</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>13</v>
       </c>
       <c r="B94" t="s">
         <v>89</v>
       </c>
-      <c r="C94" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94" s="1">
-        <v>0</v>
+      <c r="D94" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="1">
-        <v>917000</v>
+        <v>0</v>
       </c>
       <c r="F94" s="1">
         <v>917000</v>
       </c>
       <c r="G94" s="1">
-        <v>0</v>
+        <v>917000</v>
       </c>
       <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
         <v>917000</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>13</v>
       </c>
       <c r="B95" t="s">
         <v>90</v>
       </c>
-      <c r="C95" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95" s="1">
-        <v>0</v>
+      <c r="D95" t="s">
+        <v>4</v>
       </c>
       <c r="E95" s="1">
-        <v>917000</v>
+        <v>0</v>
       </c>
       <c r="F95" s="1">
         <v>917000</v>
       </c>
       <c r="G95" s="1">
-        <v>0</v>
+        <v>917000</v>
       </c>
       <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
         <v>917000</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>91</v>
       </c>
-      <c r="D96" s="1">
+      <c r="E96" s="1">
         <v>48000</v>
       </c>
-      <c r="E96" s="1">
+      <c r="F96" s="1">
         <v>1834000</v>
       </c>
-      <c r="F96" s="1">
+      <c r="G96" s="1">
         <v>1882000</v>
       </c>
-      <c r="G96" s="1">
+      <c r="H96" s="1">
         <v>490000</v>
       </c>
-      <c r="H96" s="1">
+      <c r="I96" s="1">
         <v>2372000</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D97" s="4">
-        <f>SUM(D91:D95)</f>
+      <c r="E97" s="4">
+        <f>SUM(E91:E95)</f>
         <v>48000</v>
       </c>
-      <c r="E97" s="4">
-        <f t="shared" ref="E97:H97" si="5">SUM(E91:E95)</f>
+      <c r="F97" s="4">
+        <f t="shared" ref="F97:I97" si="5">SUM(F91:F95)</f>
         <v>1834000</v>
       </c>
-      <c r="F97" s="4">
+      <c r="G97" s="4">
         <f t="shared" si="5"/>
         <v>1882000</v>
       </c>
-      <c r="G97" s="4">
+      <c r="H97" s="4">
         <f t="shared" si="5"/>
         <v>490000</v>
       </c>
-      <c r="H97" s="4">
+      <c r="I97" s="4">
         <f t="shared" si="5"/>
         <v>2372000</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>90</v>
       </c>
       <c r="B99" t="s">
         <v>93</v>
       </c>
-      <c r="C99" t="s">
-        <v>4</v>
-      </c>
-      <c r="D99" s="1">
+      <c r="D99" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" s="1">
         <v>24000</v>
       </c>
-      <c r="E99" s="1">
-        <v>0</v>
-      </c>
       <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
         <v>24000</v>
       </c>
-      <c r="G99" s="1">
-        <v>0</v>
-      </c>
       <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
         <v>24000</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>90</v>
       </c>
       <c r="B100" t="s">
         <v>94</v>
       </c>
-      <c r="C100" t="s">
-        <v>4</v>
-      </c>
-      <c r="D100" s="1">
+      <c r="D100" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="1">
         <v>24000</v>
       </c>
-      <c r="E100" s="1">
-        <v>0</v>
-      </c>
       <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
         <v>24000</v>
       </c>
-      <c r="G100" s="1">
-        <v>0</v>
-      </c>
       <c r="H100" s="1">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
         <v>24000</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>90</v>
       </c>
       <c r="B101" t="s">
         <v>95</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="1">
+      <c r="E101" s="1">
         <v>24000</v>
       </c>
-      <c r="E101" s="1">
-        <v>0</v>
-      </c>
       <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
         <v>24000</v>
       </c>
-      <c r="G101" s="1">
-        <v>0</v>
-      </c>
       <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
         <v>24000</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>32</v>
       </c>
       <c r="B102" t="s">
         <v>96</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="1">
-        <v>0</v>
-      </c>
       <c r="E102" s="1">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="F102" s="1">
         <v>500000</v>
       </c>
       <c r="G102" s="1">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
         <v>500000</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>78</v>
       </c>
       <c r="B103" t="s">
         <v>97</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="1">
+      <c r="E103" s="1">
         <v>46666</v>
       </c>
-      <c r="E103" s="1">
-        <v>0</v>
-      </c>
       <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
         <v>46666</v>
       </c>
-      <c r="G103" s="1">
-        <v>0</v>
-      </c>
       <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
         <v>46666</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>98</v>
       </c>
-      <c r="D104" s="1">
+      <c r="E104" s="1">
         <v>118666</v>
       </c>
-      <c r="E104" s="1">
+      <c r="F104" s="1">
         <v>500000</v>
       </c>
-      <c r="F104" s="1">
+      <c r="G104" s="1">
         <v>618666</v>
       </c>
-      <c r="G104" s="1">
-        <v>0</v>
-      </c>
       <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
         <v>618666</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D105" s="4">
-        <f>SUM(D99:D103)</f>
+      <c r="E105" s="4">
+        <f>SUM(E99:E103)</f>
         <v>118666</v>
       </c>
-      <c r="E105" s="4">
-        <f t="shared" ref="E105:H105" si="6">SUM(E99:E103)</f>
+      <c r="F105" s="4">
+        <f t="shared" ref="F105:I105" si="6">SUM(F99:F103)</f>
         <v>500000</v>
       </c>
-      <c r="F105" s="4">
+      <c r="G105" s="4">
         <f t="shared" si="6"/>
         <v>618666</v>
       </c>
-      <c r="G105" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="H105" s="4">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="4">
+        <f t="shared" si="6"/>
         <v>618666</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>87</v>
       </c>
       <c r="B107" t="s">
         <v>100</v>
       </c>
-      <c r="C107" t="s">
-        <v>4</v>
-      </c>
-      <c r="D107" s="1">
-        <v>0</v>
+      <c r="D107" t="s">
+        <v>4</v>
       </c>
       <c r="E107" s="1">
         <v>0</v>
@@ -4159,524 +4165,524 @@
         <v>0</v>
       </c>
       <c r="G107" s="1">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="H107" s="1">
         <v>28000</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="1">
+        <v>28000</v>
+      </c>
+      <c r="J107" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>36</v>
       </c>
       <c r="B108" t="s">
         <v>101</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>8</v>
       </c>
-      <c r="D108" s="1">
+      <c r="E108" s="1">
         <v>219762</v>
       </c>
-      <c r="E108" s="1">
+      <c r="F108" s="1">
         <v>197000</v>
       </c>
-      <c r="F108" s="1">
+      <c r="G108" s="1">
         <v>416762</v>
       </c>
-      <c r="G108" s="1">
-        <v>0</v>
-      </c>
       <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
         <v>416762</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>6</v>
       </c>
       <c r="B109" t="s">
         <v>102</v>
       </c>
-      <c r="C109" t="s">
-        <v>4</v>
-      </c>
-      <c r="D109" s="1">
+      <c r="D109" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="1">
         <v>2917250</v>
       </c>
-      <c r="E109" s="1">
-        <v>0</v>
-      </c>
       <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
         <v>2917250</v>
       </c>
-      <c r="G109" s="1">
-        <v>0</v>
-      </c>
       <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
         <v>2917250</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>103</v>
       </c>
-      <c r="D110" s="1">
+      <c r="E110" s="1">
         <v>3137012</v>
       </c>
-      <c r="E110" s="1">
+      <c r="F110" s="1">
         <v>197000</v>
       </c>
-      <c r="F110" s="1">
+      <c r="G110" s="1">
         <v>3334012</v>
       </c>
-      <c r="G110" s="1">
+      <c r="H110" s="1">
         <v>28000</v>
       </c>
-      <c r="H110" s="1">
+      <c r="I110" s="1">
         <v>3362012</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D111" s="4">
-        <f>SUM(D107:D109)</f>
+      <c r="E111" s="4">
+        <f>SUM(E107:E109)</f>
         <v>3137012</v>
       </c>
-      <c r="E111" s="4">
-        <f t="shared" ref="E111:H111" si="7">SUM(E107:E109)</f>
+      <c r="F111" s="4">
+        <f t="shared" ref="F111:I111" si="7">SUM(F107:F109)</f>
         <v>197000</v>
       </c>
-      <c r="F111" s="4">
+      <c r="G111" s="4">
         <f t="shared" si="7"/>
         <v>3334012</v>
       </c>
-      <c r="G111" s="4">
+      <c r="H111" s="4">
         <f t="shared" si="7"/>
         <v>28000</v>
       </c>
-      <c r="H111" s="4">
+      <c r="I111" s="4">
         <f t="shared" si="7"/>
         <v>3362012</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>20</v>
       </c>
       <c r="B113" t="s">
         <v>105</v>
       </c>
-      <c r="C113" t="s">
-        <v>4</v>
-      </c>
-      <c r="D113" s="1">
+      <c r="D113" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" s="1">
         <v>545785</v>
       </c>
-      <c r="E113" s="1">
+      <c r="F113" s="1">
         <v>7500</v>
       </c>
-      <c r="F113" s="1">
+      <c r="G113" s="1">
         <v>553285</v>
       </c>
-      <c r="G113" s="1">
-        <v>0</v>
-      </c>
       <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
         <v>553285</v>
       </c>
-      <c r="I113" t="s">
+      <c r="J113" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>21</v>
       </c>
       <c r="B114" t="s">
         <v>106</v>
       </c>
-      <c r="C114" t="s">
-        <v>4</v>
-      </c>
-      <c r="D114" s="1">
+      <c r="D114" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="1">
         <v>545785</v>
       </c>
-      <c r="E114" s="1">
-        <v>0</v>
-      </c>
       <c r="F114" s="1">
+        <v>0</v>
+      </c>
+      <c r="G114" s="1">
         <v>545785</v>
       </c>
-      <c r="G114" s="1">
-        <v>0</v>
-      </c>
       <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
         <v>545785</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>9</v>
       </c>
       <c r="B115" t="s">
         <v>107</v>
       </c>
-      <c r="C115" t="s">
-        <v>4</v>
-      </c>
-      <c r="D115" s="1">
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" s="1">
         <v>1063035</v>
       </c>
-      <c r="E115" s="1">
-        <v>0</v>
-      </c>
       <c r="F115" s="1">
+        <v>0</v>
+      </c>
+      <c r="G115" s="1">
         <v>1063035</v>
       </c>
-      <c r="G115" s="1">
-        <v>0</v>
-      </c>
       <c r="H115" s="1">
+        <v>0</v>
+      </c>
+      <c r="I115" s="1">
         <v>1063035</v>
       </c>
-      <c r="I115" t="s">
+      <c r="J115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>9</v>
       </c>
       <c r="B116" t="s">
         <v>108</v>
       </c>
-      <c r="C116" t="s">
-        <v>4</v>
-      </c>
-      <c r="D116" s="1">
+      <c r="D116" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="1">
         <v>1063035</v>
       </c>
-      <c r="E116" s="1">
-        <v>0</v>
-      </c>
       <c r="F116" s="1">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1">
         <v>1063035</v>
       </c>
-      <c r="G116" s="1">
-        <v>0</v>
-      </c>
       <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
         <v>1063035</v>
       </c>
-      <c r="I116" t="s">
+      <c r="J116" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4</v>
       </c>
       <c r="B117" t="s">
         <v>109</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>8</v>
       </c>
-      <c r="D117" s="1">
+      <c r="E117" s="1">
         <v>545785</v>
       </c>
-      <c r="E117" s="1">
+      <c r="F117" s="1">
         <v>2407500</v>
       </c>
-      <c r="F117" s="1">
+      <c r="G117" s="1">
         <v>2953285</v>
       </c>
-      <c r="G117" s="1">
-        <v>0</v>
-      </c>
       <c r="H117" s="1">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1">
         <v>2953285</v>
       </c>
-      <c r="I117" t="s">
+      <c r="J117" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>21</v>
       </c>
       <c r="B118" t="s">
         <v>110</v>
       </c>
-      <c r="C118" t="s">
-        <v>4</v>
-      </c>
-      <c r="D118" s="1">
+      <c r="D118" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118" s="1">
         <v>545785</v>
       </c>
-      <c r="E118" s="1">
-        <v>0</v>
-      </c>
       <c r="F118" s="1">
+        <v>0</v>
+      </c>
+      <c r="G118" s="1">
         <v>545785</v>
       </c>
-      <c r="G118" s="1">
-        <v>0</v>
-      </c>
       <c r="H118" s="1">
+        <v>0</v>
+      </c>
+      <c r="I118" s="1">
         <v>545785</v>
       </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
       <c r="B119" t="s">
         <v>111</v>
       </c>
-      <c r="C119" t="s">
-        <v>4</v>
-      </c>
-      <c r="D119" s="1">
+      <c r="D119" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" s="1">
         <v>545785</v>
       </c>
-      <c r="E119" s="1">
+      <c r="F119" s="1">
         <v>2400000</v>
       </c>
-      <c r="F119" s="1">
+      <c r="G119" s="1">
         <v>2945785</v>
       </c>
-      <c r="G119" s="1">
-        <v>0</v>
-      </c>
       <c r="H119" s="1">
+        <v>0</v>
+      </c>
+      <c r="I119" s="1">
         <v>2945785</v>
       </c>
-      <c r="I119" t="s">
+      <c r="J119" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>112</v>
       </c>
-      <c r="D120" s="1">
+      <c r="E120" s="1">
         <v>4854995</v>
       </c>
-      <c r="E120" s="1">
+      <c r="F120" s="1">
         <v>4815000</v>
       </c>
-      <c r="F120" s="1">
+      <c r="G120" s="1">
         <v>9669995</v>
       </c>
-      <c r="G120" s="1">
-        <v>0</v>
-      </c>
       <c r="H120" s="1">
+        <v>0</v>
+      </c>
+      <c r="I120" s="1">
         <v>9669995</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D121" s="4">
-        <f>SUM(D113:D119)</f>
+      <c r="E121" s="4">
+        <f>SUM(E113:E119)</f>
         <v>4854995</v>
       </c>
-      <c r="E121" s="4">
-        <f t="shared" ref="E121:H121" si="8">SUM(E113:E119)</f>
+      <c r="F121" s="4">
+        <f t="shared" ref="F121:I121" si="8">SUM(F113:F119)</f>
         <v>4815000</v>
       </c>
-      <c r="F121" s="4">
+      <c r="G121" s="4">
         <f t="shared" si="8"/>
         <v>9669995</v>
       </c>
-      <c r="G121" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="H121" s="4">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I121" s="4">
+        <f t="shared" si="8"/>
         <v>9669995</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>115</v>
       </c>
       <c r="B123" t="s">
         <v>114</v>
       </c>
-      <c r="C123" t="s">
-        <v>4</v>
-      </c>
-      <c r="D123" s="1">
+      <c r="D123" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="1">
         <v>42</v>
       </c>
-      <c r="E123" s="1">
-        <v>0</v>
-      </c>
       <c r="F123" s="1">
+        <v>0</v>
+      </c>
+      <c r="G123" s="1">
         <v>42</v>
       </c>
-      <c r="G123" s="1">
-        <v>0</v>
-      </c>
       <c r="H123" s="1">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
         <v>42</v>
       </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>107</v>
       </c>
       <c r="B124" t="s">
         <v>115</v>
       </c>
-      <c r="C124" t="s">
-        <v>4</v>
-      </c>
-      <c r="D124" s="1">
-        <v>0</v>
+      <c r="D124" t="s">
+        <v>4</v>
       </c>
       <c r="E124" s="1">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="F124" s="1">
         <v>520</v>
       </c>
       <c r="G124" s="1">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="H124" s="1">
+        <v>0</v>
+      </c>
+      <c r="I124" s="1">
         <v>520</v>
       </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>115</v>
       </c>
       <c r="B125" t="s">
         <v>116</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>8</v>
       </c>
-      <c r="D125" s="1">
+      <c r="E125" s="1">
         <v>42</v>
       </c>
-      <c r="E125" s="1">
-        <v>0</v>
-      </c>
       <c r="F125" s="1">
+        <v>0</v>
+      </c>
+      <c r="G125" s="1">
         <v>42</v>
       </c>
-      <c r="G125" s="1">
-        <v>0</v>
-      </c>
       <c r="H125" s="1">
+        <v>0</v>
+      </c>
+      <c r="I125" s="1">
         <v>42</v>
       </c>
-      <c r="I125" t="s">
+      <c r="J125" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>107</v>
       </c>
       <c r="B126" t="s">
         <v>117</v>
       </c>
-      <c r="C126" t="s">
-        <v>4</v>
-      </c>
-      <c r="D126" s="1">
-        <v>0</v>
+      <c r="D126" t="s">
+        <v>4</v>
       </c>
       <c r="E126" s="1">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="F126" s="1">
         <v>520</v>
       </c>
       <c r="G126" s="1">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="H126" s="1">
+        <v>0</v>
+      </c>
+      <c r="I126" s="1">
         <v>520</v>
       </c>
-      <c r="I126" t="s">
+      <c r="J126" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>115</v>
       </c>
       <c r="B127" t="s">
         <v>118</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>8</v>
       </c>
-      <c r="D127" s="1">
+      <c r="E127" s="1">
         <v>42</v>
       </c>
-      <c r="E127" s="1">
-        <v>0</v>
-      </c>
       <c r="F127" s="1">
+        <v>0</v>
+      </c>
+      <c r="G127" s="1">
         <v>42</v>
       </c>
-      <c r="G127" s="1">
-        <v>0</v>
-      </c>
       <c r="H127" s="1">
+        <v>0</v>
+      </c>
+      <c r="I127" s="1">
         <v>42</v>
       </c>
-      <c r="I127" t="s">
+      <c r="J127" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>101</v>
       </c>
       <c r="B128" t="s">
         <v>119</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>8</v>
       </c>
-      <c r="D128" s="1">
-        <v>0</v>
-      </c>
       <c r="E128" s="1">
         <v>0</v>
       </c>
@@ -4684,172 +4690,172 @@
         <v>0</v>
       </c>
       <c r="G128" s="1">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="H128" s="1">
         <v>2500</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" s="1">
+        <v>2500</v>
+      </c>
+      <c r="J128" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>27</v>
       </c>
       <c r="B129" t="s">
         <v>120</v>
       </c>
-      <c r="C129" t="s">
-        <v>4</v>
-      </c>
-      <c r="D129" s="1">
+      <c r="D129" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="1">
         <v>517250</v>
       </c>
-      <c r="E129" s="1">
-        <v>0</v>
-      </c>
       <c r="F129" s="1">
+        <v>0</v>
+      </c>
+      <c r="G129" s="1">
         <v>517250</v>
       </c>
-      <c r="G129" s="1">
-        <v>0</v>
-      </c>
       <c r="H129" s="1">
+        <v>0</v>
+      </c>
+      <c r="I129" s="1">
         <v>517250</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>76</v>
       </c>
       <c r="B130" t="s">
         <v>121</v>
       </c>
-      <c r="C130" t="s">
-        <v>4</v>
-      </c>
-      <c r="D130" s="1">
+      <c r="D130" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="1">
         <v>46667</v>
       </c>
-      <c r="E130" s="1">
-        <v>0</v>
-      </c>
       <c r="F130" s="1">
+        <v>0</v>
+      </c>
+      <c r="G130" s="1">
         <v>46667</v>
       </c>
-      <c r="G130" s="1">
-        <v>0</v>
-      </c>
       <c r="H130" s="1">
+        <v>0</v>
+      </c>
+      <c r="I130" s="1">
         <v>46667</v>
       </c>
-      <c r="I130" t="s">
+      <c r="J130" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>71</v>
       </c>
       <c r="B131" t="s">
         <v>122</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>8</v>
       </c>
-      <c r="D131" s="1">
+      <c r="E131" s="1">
         <v>50667</v>
       </c>
-      <c r="E131" s="1">
+      <c r="F131" s="1">
         <v>2000</v>
       </c>
-      <c r="F131" s="1">
+      <c r="G131" s="1">
         <v>52667</v>
       </c>
-      <c r="G131" s="1">
-        <v>0</v>
-      </c>
       <c r="H131" s="1">
+        <v>0</v>
+      </c>
+      <c r="I131" s="1">
         <v>52667</v>
       </c>
-      <c r="I131" t="s">
+      <c r="J131" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>74</v>
       </c>
       <c r="B132" t="s">
         <v>162</v>
       </c>
-      <c r="C132" t="s">
-        <v>4</v>
-      </c>
-      <c r="D132" s="1">
-        <v>0</v>
+      <c r="D132" t="s">
+        <v>4</v>
       </c>
       <c r="E132" s="1">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="F132" s="1">
         <v>48000</v>
       </c>
       <c r="G132" s="1">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="H132" s="1">
+        <v>0</v>
+      </c>
+      <c r="I132" s="1">
         <v>48000</v>
       </c>
-      <c r="I132" t="s">
+      <c r="J132" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>115</v>
       </c>
       <c r="B133" t="s">
         <v>123</v>
       </c>
-      <c r="C133" t="s">
-        <v>4</v>
-      </c>
-      <c r="D133" s="1">
+      <c r="D133" t="s">
+        <v>4</v>
+      </c>
+      <c r="E133" s="1">
         <v>42</v>
       </c>
-      <c r="E133" s="1">
-        <v>0</v>
-      </c>
       <c r="F133" s="1">
+        <v>0</v>
+      </c>
+      <c r="G133" s="1">
         <v>42</v>
       </c>
-      <c r="G133" s="1">
-        <v>0</v>
-      </c>
       <c r="H133" s="1">
+        <v>0</v>
+      </c>
+      <c r="I133" s="1">
         <v>42</v>
       </c>
-      <c r="I133" t="s">
+      <c r="J133" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>63</v>
       </c>
       <c r="B134" t="s">
         <v>124</v>
       </c>
-      <c r="C134" t="s">
-        <v>4</v>
-      </c>
-      <c r="D134" s="1">
-        <v>0</v>
+      <c r="D134" t="s">
+        <v>4</v>
       </c>
       <c r="E134" s="1">
         <v>0</v>
@@ -4858,57 +4864,57 @@
         <v>0</v>
       </c>
       <c r="G134" s="1">
-        <v>122700</v>
+        <v>0</v>
       </c>
       <c r="H134" s="1">
         <v>122700</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" s="1">
+        <v>122700</v>
+      </c>
+      <c r="J134" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>72</v>
       </c>
       <c r="B135" t="s">
         <v>125</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>8</v>
       </c>
-      <c r="D135" s="1">
+      <c r="E135" s="1">
         <v>50667</v>
       </c>
-      <c r="E135" s="1">
-        <v>0</v>
-      </c>
       <c r="F135" s="1">
+        <v>0</v>
+      </c>
+      <c r="G135" s="1">
         <v>50667</v>
       </c>
-      <c r="G135" s="1">
-        <v>0</v>
-      </c>
       <c r="H135" s="1">
+        <v>0</v>
+      </c>
+      <c r="I135" s="1">
         <v>50667</v>
       </c>
-      <c r="I135" t="s">
+      <c r="J135" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>97</v>
       </c>
       <c r="B136" t="s">
         <v>126</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>8</v>
       </c>
-      <c r="D136" s="1">
-        <v>0</v>
-      </c>
       <c r="E136" s="1">
         <v>0</v>
       </c>
@@ -4916,115 +4922,115 @@
         <v>0</v>
       </c>
       <c r="G136" s="1">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="H136" s="1">
         <v>12000</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136" s="1">
+        <v>12000</v>
+      </c>
+      <c r="J136" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>27</v>
       </c>
       <c r="B137" t="s">
         <v>127</v>
       </c>
-      <c r="C137" t="s">
-        <v>4</v>
-      </c>
-      <c r="D137" s="1">
+      <c r="D137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" s="1">
         <v>517250</v>
       </c>
-      <c r="E137" s="1">
-        <v>0</v>
-      </c>
       <c r="F137" s="1">
+        <v>0</v>
+      </c>
+      <c r="G137" s="1">
         <v>517250</v>
       </c>
-      <c r="G137" s="1">
-        <v>0</v>
-      </c>
       <c r="H137" s="1">
+        <v>0</v>
+      </c>
+      <c r="I137" s="1">
         <v>517250</v>
       </c>
-      <c r="I137" t="s">
+      <c r="J137" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>27</v>
       </c>
       <c r="B138" t="s">
         <v>128</v>
       </c>
-      <c r="C138" t="s">
-        <v>4</v>
-      </c>
-      <c r="D138" s="1">
+      <c r="D138" t="s">
+        <v>4</v>
+      </c>
+      <c r="E138" s="1">
         <v>517250</v>
       </c>
-      <c r="E138" s="1">
-        <v>0</v>
-      </c>
       <c r="F138" s="1">
+        <v>0</v>
+      </c>
+      <c r="G138" s="1">
         <v>517250</v>
       </c>
-      <c r="G138" s="1">
-        <v>0</v>
-      </c>
       <c r="H138" s="1">
+        <v>0</v>
+      </c>
+      <c r="I138" s="1">
         <v>517250</v>
       </c>
-      <c r="I138" t="s">
+      <c r="J138" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>115</v>
       </c>
       <c r="B139" t="s">
         <v>129</v>
       </c>
-      <c r="C139" t="s">
-        <v>4</v>
-      </c>
-      <c r="D139" s="1">
+      <c r="D139" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" s="1">
         <v>42</v>
       </c>
-      <c r="E139" s="1">
-        <v>0</v>
-      </c>
       <c r="F139" s="1">
+        <v>0</v>
+      </c>
+      <c r="G139" s="1">
         <v>42</v>
       </c>
-      <c r="G139" s="1">
-        <v>0</v>
-      </c>
       <c r="H139" s="1">
+        <v>0</v>
+      </c>
+      <c r="I139" s="1">
         <v>42</v>
       </c>
-      <c r="I139" t="s">
+      <c r="J139" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>98</v>
       </c>
       <c r="B140" t="s">
         <v>130</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>8</v>
       </c>
-      <c r="D140" s="1">
-        <v>0</v>
-      </c>
       <c r="E140" s="1">
         <v>0</v>
       </c>
@@ -5032,57 +5038,57 @@
         <v>0</v>
       </c>
       <c r="G140" s="1">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="H140" s="1">
         <v>9000</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I140" s="1">
+        <v>9000</v>
+      </c>
+      <c r="J140" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>107</v>
       </c>
       <c r="B141" t="s">
         <v>131</v>
       </c>
-      <c r="C141" t="s">
-        <v>4</v>
-      </c>
-      <c r="D141" s="1">
-        <v>0</v>
+      <c r="D141" t="s">
+        <v>4</v>
       </c>
       <c r="E141" s="1">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="F141" s="1">
         <v>520</v>
       </c>
       <c r="G141" s="1">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="H141" s="1">
+        <v>0</v>
+      </c>
+      <c r="I141" s="1">
         <v>520</v>
       </c>
-      <c r="I141" t="s">
+      <c r="J141" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>82</v>
       </c>
       <c r="B142" t="s">
         <v>132</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>8</v>
       </c>
-      <c r="D142" s="1">
-        <v>0</v>
-      </c>
       <c r="E142" s="1">
         <v>0</v>
       </c>
@@ -5090,538 +5096,541 @@
         <v>0</v>
       </c>
       <c r="G142" s="1">
-        <v>35400</v>
+        <v>0</v>
       </c>
       <c r="H142" s="1">
         <v>35400</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I142" s="1">
+        <v>35400</v>
+      </c>
+      <c r="J142" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>27</v>
       </c>
       <c r="B143" t="s">
         <v>133</v>
       </c>
-      <c r="C143" t="s">
-        <v>4</v>
-      </c>
-      <c r="D143" s="1">
+      <c r="D143" t="s">
+        <v>4</v>
+      </c>
+      <c r="E143" s="1">
         <v>517250</v>
       </c>
-      <c r="E143" s="1">
-        <v>0</v>
-      </c>
       <c r="F143" s="1">
+        <v>0</v>
+      </c>
+      <c r="G143" s="1">
         <v>517250</v>
       </c>
-      <c r="G143" s="1">
-        <v>0</v>
-      </c>
       <c r="H143" s="1">
+        <v>0</v>
+      </c>
+      <c r="I143" s="1">
         <v>517250</v>
       </c>
-      <c r="I143" t="s">
+      <c r="J143" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>107</v>
       </c>
       <c r="B144" t="s">
         <v>134</v>
       </c>
-      <c r="C144" t="s">
-        <v>4</v>
-      </c>
-      <c r="D144" s="1">
-        <v>0</v>
+      <c r="D144" t="s">
+        <v>4</v>
       </c>
       <c r="E144" s="1">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="F144" s="1">
         <v>520</v>
       </c>
       <c r="G144" s="1">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="H144" s="1">
+        <v>0</v>
+      </c>
+      <c r="I144" s="1">
         <v>520</v>
       </c>
-      <c r="I144" t="s">
+      <c r="J144" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>107</v>
       </c>
       <c r="B145" t="s">
         <v>135</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>8</v>
       </c>
-      <c r="D145" s="1">
-        <v>0</v>
-      </c>
       <c r="E145" s="1">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="F145" s="1">
         <v>520</v>
       </c>
       <c r="G145" s="1">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="H145" s="1">
+        <v>0</v>
+      </c>
+      <c r="I145" s="1">
         <v>520</v>
       </c>
-      <c r="I145" t="s">
+      <c r="J145" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>115</v>
       </c>
       <c r="B146" t="s">
         <v>136</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>8</v>
       </c>
-      <c r="D146" s="1">
+      <c r="E146" s="1">
         <v>42</v>
       </c>
-      <c r="E146" s="1">
-        <v>0</v>
-      </c>
       <c r="F146" s="1">
+        <v>0</v>
+      </c>
+      <c r="G146" s="1">
         <v>42</v>
       </c>
-      <c r="G146" s="1">
-        <v>0</v>
-      </c>
       <c r="H146" s="1">
+        <v>0</v>
+      </c>
+      <c r="I146" s="1">
         <v>42</v>
       </c>
-      <c r="I146" t="s">
+      <c r="J146" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>123</v>
       </c>
       <c r="B147" t="s">
         <v>137</v>
       </c>
-      <c r="C147" t="s">
-        <v>4</v>
-      </c>
-      <c r="D147" s="1">
+      <c r="D147" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" s="1">
         <v>41</v>
       </c>
-      <c r="E147" s="1">
-        <v>0</v>
-      </c>
       <c r="F147" s="1">
+        <v>0</v>
+      </c>
+      <c r="G147" s="1">
         <v>41</v>
       </c>
-      <c r="G147" s="1">
-        <v>0</v>
-      </c>
       <c r="H147" s="1">
+        <v>0</v>
+      </c>
+      <c r="I147" s="1">
         <v>41</v>
       </c>
-      <c r="I147" t="s">
+      <c r="J147" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>107</v>
       </c>
       <c r="B148" t="s">
         <v>138</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="1">
-        <v>0</v>
-      </c>
       <c r="E148" s="1">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="F148" s="1">
         <v>520</v>
       </c>
       <c r="G148" s="1">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="H148" s="1">
+        <v>0</v>
+      </c>
+      <c r="I148" s="1">
         <v>520</v>
       </c>
-      <c r="I148" t="s">
+      <c r="J148" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>78</v>
       </c>
       <c r="B149" t="s">
         <v>139</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>8</v>
       </c>
-      <c r="D149" s="1">
+      <c r="E149" s="1">
         <v>46666</v>
       </c>
-      <c r="E149" s="1">
-        <v>0</v>
-      </c>
       <c r="F149" s="1">
+        <v>0</v>
+      </c>
+      <c r="G149" s="1">
         <v>46666</v>
       </c>
-      <c r="G149" s="1">
-        <v>0</v>
-      </c>
       <c r="H149" s="1">
+        <v>0</v>
+      </c>
+      <c r="I149" s="1">
         <v>46666</v>
       </c>
-      <c r="I149" t="s">
+      <c r="J149" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>107</v>
       </c>
       <c r="B150" t="s">
         <v>140</v>
       </c>
-      <c r="C150" t="s">
-        <v>4</v>
-      </c>
-      <c r="D150" s="1">
-        <v>0</v>
+      <c r="D150" t="s">
+        <v>4</v>
       </c>
       <c r="E150" s="1">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="F150" s="1">
         <v>520</v>
       </c>
       <c r="G150" s="1">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="H150" s="1">
+        <v>0</v>
+      </c>
+      <c r="I150" s="1">
         <v>520</v>
       </c>
-      <c r="I150" t="s">
+      <c r="J150" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>18</v>
       </c>
       <c r="B151" t="s">
         <v>141</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>8</v>
       </c>
-      <c r="D151" s="1">
+      <c r="E151" s="1">
         <v>651000</v>
       </c>
-      <c r="E151" s="1">
-        <v>0</v>
-      </c>
       <c r="F151" s="1">
+        <v>0</v>
+      </c>
+      <c r="G151" s="1">
         <v>651000</v>
       </c>
-      <c r="G151" s="1">
-        <v>0</v>
-      </c>
       <c r="H151" s="1">
+        <v>0</v>
+      </c>
+      <c r="I151" s="1">
         <v>651000</v>
       </c>
-      <c r="I151" t="s">
+      <c r="J151" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>64</v>
       </c>
       <c r="B152" t="s">
         <v>142</v>
       </c>
-      <c r="C152" t="s">
-        <v>4</v>
-      </c>
-      <c r="D152" s="1">
-        <v>0</v>
+      <c r="D152" t="s">
+        <v>4</v>
       </c>
       <c r="E152" s="1">
-        <v>115000</v>
+        <v>0</v>
       </c>
       <c r="F152" s="1">
         <v>115000</v>
       </c>
       <c r="G152" s="1">
-        <v>0</v>
+        <v>115000</v>
       </c>
       <c r="H152" s="1">
+        <v>0</v>
+      </c>
+      <c r="I152" s="1">
         <v>115000</v>
       </c>
-      <c r="I152" t="s">
+      <c r="J152" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>115</v>
       </c>
       <c r="B153" t="s">
         <v>143</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>8</v>
       </c>
-      <c r="D153" s="1">
+      <c r="E153" s="1">
         <v>42</v>
       </c>
-      <c r="E153" s="1">
-        <v>0</v>
-      </c>
       <c r="F153" s="1">
+        <v>0</v>
+      </c>
+      <c r="G153" s="1">
         <v>42</v>
       </c>
-      <c r="G153" s="1">
-        <v>0</v>
-      </c>
       <c r="H153" s="1">
+        <v>0</v>
+      </c>
+      <c r="I153" s="1">
         <v>42</v>
       </c>
-      <c r="I153" t="s">
+      <c r="J153" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>123</v>
       </c>
       <c r="B154" t="s">
         <v>144</v>
       </c>
-      <c r="C154" t="s">
-        <v>4</v>
-      </c>
-      <c r="D154" s="1">
+      <c r="D154" t="s">
+        <v>4</v>
+      </c>
+      <c r="E154" s="1">
         <v>41</v>
       </c>
-      <c r="E154" s="1">
-        <v>0</v>
-      </c>
       <c r="F154" s="1">
+        <v>0</v>
+      </c>
+      <c r="G154" s="1">
         <v>41</v>
       </c>
-      <c r="G154" s="1">
-        <v>0</v>
-      </c>
       <c r="H154" s="1">
+        <v>0</v>
+      </c>
+      <c r="I154" s="1">
         <v>41</v>
       </c>
-      <c r="I154" t="s">
+      <c r="J154" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>49</v>
       </c>
       <c r="B155" t="s">
         <v>145</v>
       </c>
-      <c r="C155" t="s">
-        <v>4</v>
-      </c>
-      <c r="D155" s="1">
-        <v>0</v>
+      <c r="D155" t="s">
+        <v>4</v>
       </c>
       <c r="E155" s="1">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="F155" s="1">
         <v>200000</v>
       </c>
       <c r="G155" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H155" s="1">
+        <v>0</v>
+      </c>
+      <c r="I155" s="1">
         <v>200000</v>
       </c>
-      <c r="I155" t="s">
+      <c r="J155" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>146</v>
       </c>
-      <c r="D156" s="1">
+      <c r="E156" s="1">
         <v>2915043</v>
       </c>
-      <c r="E156" s="1">
+      <c r="F156" s="1">
         <v>368640</v>
       </c>
-      <c r="F156" s="1">
+      <c r="G156" s="1">
         <v>3283683</v>
       </c>
-      <c r="G156" s="1">
+      <c r="H156" s="1">
         <v>181600</v>
       </c>
-      <c r="H156" s="1">
+      <c r="I156" s="1">
         <v>3465283</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D157" s="4">
-        <f>SUM(D123:D155)</f>
+      <c r="E157" s="4">
+        <f>SUM(E123:E155)</f>
         <v>2915043</v>
       </c>
-      <c r="E157" s="4">
-        <f t="shared" ref="E157:H157" si="9">SUM(E123:E155)</f>
+      <c r="F157" s="4">
+        <f t="shared" ref="F157:I157" si="9">SUM(F123:F155)</f>
         <v>368640</v>
       </c>
-      <c r="F157" s="4">
+      <c r="G157" s="4">
         <f t="shared" si="9"/>
         <v>3283683</v>
       </c>
-      <c r="G157" s="4">
+      <c r="H157" s="4">
         <f t="shared" si="9"/>
         <v>181600</v>
       </c>
-      <c r="H157" s="4">
+      <c r="I157" s="4">
         <f t="shared" si="9"/>
         <v>3465283</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>148</v>
       </c>
-      <c r="D160" s="1">
+      <c r="E160" s="1">
         <v>29645961</v>
       </c>
-      <c r="E160" s="1">
+      <c r="F160" s="1">
         <v>28613127</v>
       </c>
-      <c r="F160" s="1">
+      <c r="G160" s="1">
         <v>58259088</v>
       </c>
-      <c r="G160" s="1">
+      <c r="H160" s="1">
         <v>2094400</v>
       </c>
-      <c r="H160" s="1">
+      <c r="I160" s="1">
         <v>60353488</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>149</v>
       </c>
-      <c r="D161" s="1">
+      <c r="E161" s="1">
         <v>438000</v>
       </c>
-      <c r="E161" s="1">
-        <v>0</v>
-      </c>
       <c r="F161" s="1">
+        <v>0</v>
+      </c>
+      <c r="G161" s="1">
         <v>438000</v>
       </c>
-      <c r="G161" s="1">
+      <c r="H161" s="1">
         <v>75500000</v>
       </c>
-      <c r="H161" s="1">
+      <c r="I161" s="1">
         <v>75938000</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>150</v>
       </c>
-      <c r="D162" s="1">
+      <c r="E162" s="1">
         <v>30083961</v>
       </c>
-      <c r="E162" s="1">
+      <c r="F162" s="1">
         <v>28613127</v>
       </c>
-      <c r="F162" s="1">
+      <c r="G162" s="1">
         <v>58697088</v>
       </c>
-      <c r="G162" s="1">
+      <c r="H162" s="1">
         <v>77594400</v>
       </c>
-      <c r="H162" s="1">
+      <c r="I162" s="1">
         <v>136291488</v>
       </c>
     </row>
-    <row r="164" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B164" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D164" s="4">
-        <f>SUM(D157,D121,D111,D105,D97,D89,D62,D54,D40,D20)</f>
+      <c r="E164" s="4">
+        <f>SUM(E157,E121,E111,E105,E97,E89,E62,E54,E40,E20)</f>
         <v>29645961</v>
       </c>
-      <c r="E164" s="4">
-        <f t="shared" ref="E164:H164" si="10">SUM(E157,E121,E111,E105,E97,E89,E62,E54,E40,E20)</f>
+      <c r="F164" s="4">
+        <f t="shared" ref="F164:I164" si="10">SUM(F157,F121,F111,F105,F97,F89,F62,F54,F40,F20)</f>
         <v>28613127</v>
       </c>
-      <c r="F164" s="4">
+      <c r="G164" s="4">
         <f t="shared" si="10"/>
         <v>58259088</v>
       </c>
-      <c r="G164" s="4">
+      <c r="H164" s="4">
         <f t="shared" si="10"/>
         <v>2094400</v>
       </c>
-      <c r="H164" s="4">
+      <c r="I164" s="4">
         <f t="shared" si="10"/>
         <v>60353488</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>175</v>
       </c>
